--- a/OilToolsPlantform.data/Models/InitData/data.xlsx
+++ b/OilToolsPlantform.data/Models/InitData/data.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20356"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFF5480-84B5-4FAA-86FA-A95386D463EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537A9A2D-191D-4E94-ACFF-42FD1B3D9845}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一级目录" sheetId="4" r:id="rId1"/>
     <sheet name="二级目录" sheetId="5" r:id="rId2"/>
     <sheet name="工具" sheetId="6" r:id="rId3"/>
     <sheet name="工具明细" sheetId="7" r:id="rId4"/>
+    <sheet name="组织架构" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -973,15 +974,15 @@
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F20" si="0">"insert into tbCatS (CatFID,Name,NameJP,NameQP,Description,CreateUser,CreateTime,UpdateUser,UpdateTime,SortOrder,Enabled) select (select CatFID from tbCatF where name='"&amp;C3&amp;"'),'"&amp;A3&amp;"','','','"&amp;B3&amp;"','system',getdate(),'system',getdate(),"&amp;E3&amp;",'1';"</f>
+        <f t="shared" ref="F3:F19" si="0">"insert into tbCatS (CatFID,Name,NameJP,NameQP,Description,CreateUser,CreateTime,UpdateUser,UpdateTime,SortOrder,Enabled) select (select CatFID from tbCatF where name='"&amp;C3&amp;"'),'"&amp;A3&amp;"','','','"&amp;B3&amp;"','system',getdate(),'system',getdate(),"&amp;E3&amp;",'1';"</f>
         <v>insert into tbCatS (CatFID,Name,NameJP,NameQP,Description,CreateUser,CreateTime,UpdateUser,UpdateTime,SortOrder,Enabled) select (select CatFID from tbCatF where name='修井类工具'),'二级目录1-2','','','二级目录','system',getdate(),'system',getdate(),0,'1';</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G20" si="1">"insert into tbPic (PicName,StoreName,Path,ThambName,CreateUser,CreateTime) select '"&amp;A3&amp;"','"&amp;D3&amp;".png','img/cat/','"&amp;D3&amp;"_min.png','system',getdate();"</f>
+        <f t="shared" ref="G3:G19" si="1">"insert into tbPic (PicName,StoreName,Path,ThambName,CreateUser,CreateTime) select '"&amp;A3&amp;"','"&amp;D3&amp;".png','img/cat/','"&amp;D3&amp;"_min.png','system',getdate();"</f>
         <v>insert into tbPic (PicName,StoreName,Path,ThambName,CreateUser,CreateTime) select '二级目录1-2','cats01.png','img/cat/','cats01_min.png','system',getdate();</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H20" si="2">"insert into tbCatSPic (CatSID,PicID,PicType,SortOrder,Enabled) select (select catsID from tbCatS where Name='"&amp;A3&amp;"'),(select picid from tbPic where PicName='"&amp;A3&amp;"'),0,0,'1';"</f>
+        <f t="shared" ref="H3:H19" si="2">"insert into tbCatSPic (CatSID,PicID,PicType,SortOrder,Enabled) select (select catsID from tbCatS where Name='"&amp;A3&amp;"'),(select picid from tbPic where PicName='"&amp;A3&amp;"'),0,0,'1';"</f>
         <v>insert into tbCatSPic (CatSID,PicID,PicType,SortOrder,Enabled) select (select catsID from tbCatS where Name='二级目录1-2'),(select picid from tbPic where PicName='二级目录1-2'),0,0,'1';</v>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8835041-EB7B-490D-A8CF-8AA630040FB1}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -2331,4 +2332,33 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E1FF6E-43A5-4D57-B5A2-50308DBC3ADD}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="str">
+        <f>"insert into tbOrg values('工程技术研究院','/1/','/工程技术研究院/','2020-12-13','2020-12-13','总部',-1)"</f>
+        <v>insert into tbOrg values('工程技术研究院','/1/','/工程技术研究院/','2020-12-13','2020-12-13','总部',-1)</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="str">
+        <f>"insert into tbOrg values('外部人员','/2/','/外部人员/','2020-12-13','2020-12-13','外部',-1)"</f>
+        <v>insert into tbOrg values('外部人员','/2/','/外部人员/','2020-12-13','2020-12-13','外部',-1)</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>